--- a/temporary.xlsx
+++ b/temporary.xlsx
@@ -1278,7 +1278,7 @@
     <row r="3" ht="17.4" customHeight="1" s="48">
       <c r="D3" s="46" t="inlineStr">
         <is>
-          <t>Serija 2022 Nr. 1645</t>
+          <t>Serija 2022 Nr. 8264</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="D6" s="11" t="n"/>
       <c r="E6" s="77" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="F6" s="15" t="n"/>
@@ -1457,7 +1457,7 @@
     <row r="21">
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Vardenis Pavardenis</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="C21" s="23" t="n"/>
@@ -1470,7 +1470,7 @@
     <row r="22">
       <c r="B22" s="52" t="inlineStr">
         <is>
-          <t>vardenis@gmail.com</t>
+          <t>coliukeb@gmail.com</t>
         </is>
       </c>
       <c r="F22" s="80" t="n"/>
@@ -1537,18 +1537,18 @@
     <row r="29" ht="33.75" customHeight="1" s="48" thickBot="1">
       <c r="B29" s="50" t="inlineStr">
         <is>
-          <t>Korepetitoriaus paslaugos (2 val.)</t>
+          <t>Korepetitoriaus paslaugos (1.0 val.)</t>
         </is>
       </c>
       <c r="C29" s="90" t="n"/>
       <c r="D29" s="59" t="inlineStr">
         <is>
-          <t>2022/08</t>
+          <t>2022/10</t>
         </is>
       </c>
       <c r="E29" s="91" t="n"/>
       <c r="F29" s="45" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="F31" s="40" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1674,7 +1674,7 @@
       <c r="C42" s="23" t="n"/>
       <c r="D42" s="38" t="inlineStr">
         <is>
-          <t>Vardenis Pavardenis</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="E42" s="15" t="n"/>

--- a/temporary.xlsx
+++ b/temporary.xlsx
@@ -1278,7 +1278,7 @@
     <row r="3" ht="17.4" customHeight="1" s="48">
       <c r="D3" s="46" t="inlineStr">
         <is>
-          <t>Serija 2022 Nr. 8264</t>
+          <t>Serija 2022 Nr. 5448</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="D6" s="11" t="n"/>
       <c r="E6" s="77" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="F6" s="15" t="n"/>
@@ -1537,7 +1537,7 @@
     <row r="29" ht="33.75" customHeight="1" s="48" thickBot="1">
       <c r="B29" s="50" t="inlineStr">
         <is>
-          <t>Korepetitoriaus paslaugos (1.0 val.)</t>
+          <t>Korepetitoriaus paslaugos (4.0 val.)</t>
         </is>
       </c>
       <c r="C29" s="90" t="n"/>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E29" s="91" t="n"/>
       <c r="F29" s="45" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="F31" s="40" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
